--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-person-birth-place.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-person-birth-place.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-3</t>
+    <t>1.0.0-ballot-4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T15:19:17+00:00</t>
+    <t>2024-04-02T14:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>ANS</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
   </si>
   <si>
     <t>Contact</t>
@@ -362,13 +362,13 @@
 </t>
   </si>
   <si>
-    <t>Lieu de naissance de la personne.</t>
+    <t>Lieu de naissance de la personne (Synonyme MOS : lieuNaissance).</t>
   </si>
   <si>
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
   </si>
   <si>
-    <t>Synonyme MOS : lieuNaissance</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>AD</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-person-birth-place.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-person-birth-place.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T14:41:29+00:00</t>
+    <t>2024-04-10T12:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris (https://esante.gouv.fr, monserviceclient.annuaire@esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-person-birth-place.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-person-birth-place.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:30:53+00:00</t>
+    <t>2024-04-25T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-person-birth-place.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-person-birth-place.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="112">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T11:46:45+00:00</t>
+    <t>2025-04-14T13:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -331,8 +331,8 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
-</t>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
   <si>
     <t>Value of extension</t>
@@ -345,9 +345,6 @@
 </t>
   </si>
   <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
@@ -363,15 +360,6 @@
   </si>
   <si>
     <t>Lieu de naissance de la personne (Synonyme MOS : lieuNaissance).</t>
-  </si>
-  <si>
-    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
-  </si>
-  <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
-    <t>AD</t>
   </si>
 </sst>
 </file>
@@ -703,7 +691,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.08203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1144,7 +1132,7 @@
         <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>81</v>
@@ -1338,7 +1326,7 @@
         <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>102</v>
@@ -1350,10 +1338,10 @@
         <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>101</v>
@@ -1361,13 +1349,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>102</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>76</v>
@@ -1389,17 +1377,15 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="M7" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
         <v>76</v>
@@ -1457,13 +1443,13 @@
         <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
